--- a/solutions/microsoft/modern-workspace/m365-deployment/presales/level-of-effort-estimate.xlsx
+++ b/solutions/microsoft/modern-workspace/m365-deployment/presales/level-of-effort-estimate.xlsx
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="E34" s="55">
-        <f>ROUND(SUM($G$33:$G$63)*0.10,0)</f>
+        <f>ROUND(SUM($G$3:$G$33)*0.10,0)</f>
         <v/>
       </c>
       <c r="F34" s="54">
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="E35" s="49">
-        <f>ROUND(SUM($G$33:$G$63)*0.10,0)</f>
+        <f>ROUND(SUM($G$3:$G$34)*0.10,0)</f>
         <v/>
       </c>
       <c r="F35" s="48">
@@ -3691,7 +3691,7 @@
         </is>
       </c>
       <c r="G36" s="58">
-        <f>SUM($G$33:$G$65)</f>
+        <f>SUM($G$3:$G$35)</f>
         <v/>
       </c>
       <c r="H36" s="58" t="inlineStr">
